--- a/user-data/population-total/population-total.xlsx
+++ b/user-data/population-total/population-total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: NA</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1739,32 +1736,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -1780,11 +1777,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-total/population-total.xlsx
+++ b/user-data/population-total/population-total.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1360,7 +1360,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/population-total/population-total.xlsx
+++ b/user-data/population-total/population-total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1366,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1779,6 +1782,11 @@
         <v>452</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-total/population-total.xlsx
+++ b/user-data/population-total/population-total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -151,7 +151,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -871,7 +871,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -889,7 +889,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1057,7 +1057,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1096,16 +1096,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1243,6 +1243,9 @@
     <t>Notes:</t>
   </si>
   <si>
+    <t>World Bank population data for Sudan and South Sudan is reported separately for all years.  </t>
+  </si>
+  <si>
     <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
@@ -1258,7 +1261,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11">
@@ -1647,27 +1650,37 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9641,7 +9654,7 @@
         <v>2000</v>
       </c>
       <c r="D569" t="n">
-        <v>  15554000</v>
+        <v>  12223000</v>
       </c>
     </row>
     <row r="570">
@@ -9655,7 +9668,7 @@
         <v>2001</v>
       </c>
       <c r="D570" t="n">
-        <v>  16020000</v>
+        <v>  12473000</v>
       </c>
     </row>
     <row r="571">
@@ -9669,7 +9682,7 @@
         <v>2002</v>
       </c>
       <c r="D571" t="n">
-        <v>  16501000</v>
+        <v>  12709000</v>
       </c>
     </row>
     <row r="572">
@@ -9683,7 +9696,7 @@
         <v>2003</v>
       </c>
       <c r="D572" t="n">
-        <v>  16996000</v>
+        <v>  12934000</v>
       </c>
     </row>
     <row r="573">
@@ -9697,7 +9710,7 @@
         <v>2004</v>
       </c>
       <c r="D573" t="n">
-        <v>  17506000</v>
+        <v>  13149000</v>
       </c>
     </row>
     <row r="574">
@@ -9711,7 +9724,7 @@
         <v>2005</v>
       </c>
       <c r="D574" t="n">
-        <v>  18031000</v>
+        <v>  13356000</v>
       </c>
     </row>
     <row r="575">
@@ -9725,7 +9738,7 @@
         <v>2006</v>
       </c>
       <c r="D575" t="n">
-        <v>  18500000</v>
+        <v>  13555000</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9752,7 @@
         <v>2007</v>
       </c>
       <c r="D576" t="n">
-        <v>  18981000</v>
+        <v>  13747000</v>
       </c>
     </row>
     <row r="577">
@@ -9753,7 +9766,7 @@
         <v>2008</v>
       </c>
       <c r="D577" t="n">
-        <v>  19475000</v>
+        <v>  13941000</v>
       </c>
     </row>
     <row r="578">
@@ -9767,7 +9780,7 @@
         <v>2009</v>
       </c>
       <c r="D578" t="n">
-        <v>  19981000</v>
+        <v>  14144000</v>
       </c>
     </row>
     <row r="579">
@@ -9781,7 +9794,7 @@
         <v>2010</v>
       </c>
       <c r="D579" t="n">
-        <v>  20500000</v>
+        <v>  14365000</v>
       </c>
     </row>
     <row r="580">
@@ -9795,7 +9808,7 @@
         <v>2011</v>
       </c>
       <c r="D580" t="n">
-        <v>  21033000</v>
+        <v>  14605000</v>
       </c>
     </row>
     <row r="581">
@@ -9809,7 +9822,7 @@
         <v>2012</v>
       </c>
       <c r="D581" t="n">
-        <v>  21580000</v>
+        <v>  14864000</v>
       </c>
     </row>
     <row r="582">
@@ -9823,7 +9836,7 @@
         <v>2013</v>
       </c>
       <c r="D582" t="n">
-        <v>  22141000</v>
+        <v>  15087000</v>
       </c>
     </row>
     <row r="583">
@@ -9837,7 +9850,7 @@
         <v>2014</v>
       </c>
       <c r="D583" t="n">
-        <v>  22717000</v>
+        <v>  15313000</v>
       </c>
     </row>
     <row r="584">
@@ -9851,7 +9864,7 @@
         <v>2015</v>
       </c>
       <c r="D584" t="n">
-        <v>  23308000</v>
+        <v>  15543000</v>
       </c>
     </row>
     <row r="585">
@@ -9865,7 +9878,7 @@
         <v>2016</v>
       </c>
       <c r="D585" t="n">
-        <v>  23914000</v>
+        <v>  15776000</v>
       </c>
     </row>
     <row r="586">
@@ -9879,7 +9892,7 @@
         <v>2017</v>
       </c>
       <c r="D586" t="n">
-        <v>  24535000</v>
+        <v>  16013000</v>
       </c>
     </row>
     <row r="587">
@@ -9893,7 +9906,7 @@
         <v>2018</v>
       </c>
       <c r="D587" t="n">
-        <v>  25173000</v>
+        <v>  16253000</v>
       </c>
     </row>
     <row r="588">
@@ -9907,7 +9920,7 @@
         <v>2019</v>
       </c>
       <c r="D588" t="n">
-        <v>  25828000</v>
+        <v>  16497000</v>
       </c>
     </row>
     <row r="589">
@@ -9921,7 +9934,7 @@
         <v>2020</v>
       </c>
       <c r="D589" t="n">
-        <v>  26499000</v>
+        <v>  16744000</v>
       </c>
     </row>
     <row r="590">
@@ -9935,7 +9948,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>  12223000</v>
+        <v>  15541000</v>
       </c>
     </row>
     <row r="591">
@@ -9949,7 +9962,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>  12473000</v>
+        <v>  15976000</v>
       </c>
     </row>
     <row r="592">
@@ -9963,7 +9976,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>  12709000</v>
+        <v>  16423000</v>
       </c>
     </row>
     <row r="593">
@@ -9977,7 +9990,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>  12934000</v>
+        <v>  16883000</v>
       </c>
     </row>
     <row r="594">
@@ -9991,7 +10004,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>  13149000</v>
+        <v>  17356000</v>
       </c>
     </row>
     <row r="595">
@@ -10005,7 +10018,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>  13356000</v>
+        <v>  17842000</v>
       </c>
     </row>
     <row r="596">
@@ -10019,7 +10032,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>  13555000</v>
+        <v>  18341000</v>
       </c>
     </row>
     <row r="597">
@@ -10033,7 +10046,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>  13747000</v>
+        <v>  18855000</v>
       </c>
     </row>
     <row r="598">
@@ -10047,7 +10060,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>  13941000</v>
+        <v>  19383000</v>
       </c>
     </row>
     <row r="599">
@@ -10061,7 +10074,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>  14144000</v>
+        <v>  19926000</v>
       </c>
     </row>
     <row r="600">
@@ -10075,7 +10088,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>  14365000</v>
+        <v>  20424000</v>
       </c>
     </row>
     <row r="601">
@@ -10089,7 +10102,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>  14605000</v>
+        <v>  20934000</v>
       </c>
     </row>
     <row r="602">
@@ -10103,7 +10116,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>  14864000</v>
+        <v>  21458000</v>
       </c>
     </row>
     <row r="603">
@@ -10117,7 +10130,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>  15087000</v>
+        <v>  21994000</v>
       </c>
     </row>
     <row r="604">
@@ -10131,7 +10144,7 @@
         <v>2014</v>
       </c>
       <c r="D604" t="n">
-        <v>  15313000</v>
+        <v>  22544000</v>
       </c>
     </row>
     <row r="605">
@@ -10145,7 +10158,7 @@
         <v>2015</v>
       </c>
       <c r="D605" t="n">
-        <v>  15543000</v>
+        <v>  23108000</v>
       </c>
     </row>
     <row r="606">
@@ -10159,7 +10172,7 @@
         <v>2016</v>
       </c>
       <c r="D606" t="n">
-        <v>  15776000</v>
+        <v>  23685000</v>
       </c>
     </row>
     <row r="607">
@@ -10173,7 +10186,7 @@
         <v>2017</v>
       </c>
       <c r="D607" t="n">
-        <v>  16013000</v>
+        <v>  24277000</v>
       </c>
     </row>
     <row r="608">
@@ -10187,7 +10200,7 @@
         <v>2018</v>
       </c>
       <c r="D608" t="n">
-        <v>  16253000</v>
+        <v>  24884000</v>
       </c>
     </row>
     <row r="609">
@@ -10201,7 +10214,7 @@
         <v>2019</v>
       </c>
       <c r="D609" t="n">
-        <v>  16497000</v>
+        <v>  25506000</v>
       </c>
     </row>
     <row r="610">
@@ -10215,7 +10228,7 @@
         <v>2020</v>
       </c>
       <c r="D610" t="n">
-        <v>  16744000</v>
+        <v>  26144000</v>
       </c>
     </row>
     <row r="611">
@@ -10229,7 +10242,7 @@
         <v>2000</v>
       </c>
       <c r="D611" t="n">
-        <v>  15541000</v>
+        <v>  30647000</v>
       </c>
     </row>
     <row r="612">
@@ -10243,7 +10256,7 @@
         <v>2001</v>
       </c>
       <c r="D612" t="n">
-        <v>  15976000</v>
+        <v>  30972000</v>
       </c>
     </row>
     <row r="613">
@@ -10257,7 +10270,7 @@
         <v>2002</v>
       </c>
       <c r="D613" t="n">
-        <v>  16423000</v>
+        <v>  31309000</v>
       </c>
     </row>
     <row r="614">
@@ -10271,7 +10284,7 @@
         <v>2003</v>
       </c>
       <c r="D614" t="n">
-        <v>  16883000</v>
+        <v>  31602000</v>
       </c>
     </row>
     <row r="615">
@@ -10285,7 +10298,7 @@
         <v>2004</v>
       </c>
       <c r="D615" t="n">
-        <v>  17356000</v>
+        <v>  31899000</v>
       </c>
     </row>
     <row r="616">
@@ -10299,7 +10312,7 @@
         <v>2005</v>
       </c>
       <c r="D616" t="n">
-        <v>  17842000</v>
+        <v>  32203000</v>
       </c>
     </row>
     <row r="617">
@@ -10313,7 +10326,7 @@
         <v>2006</v>
       </c>
       <c r="D617" t="n">
-        <v>  18341000</v>
+        <v>  32529000</v>
       </c>
     </row>
     <row r="618">
@@ -10327,7 +10340,7 @@
         <v>2007</v>
       </c>
       <c r="D618" t="n">
-        <v>  18855000</v>
+        <v>  32848000</v>
       </c>
     </row>
     <row r="619">
@@ -10341,7 +10354,7 @@
         <v>2008</v>
       </c>
       <c r="D619" t="n">
-        <v>  19383000</v>
+        <v>  33199000</v>
       </c>
     </row>
     <row r="620">
@@ -10355,7 +10368,7 @@
         <v>2009</v>
       </c>
       <c r="D620" t="n">
-        <v>  19926000</v>
+        <v>  33581000</v>
       </c>
     </row>
     <row r="621">
@@ -10369,7 +10382,7 @@
         <v>2010</v>
       </c>
       <c r="D621" t="n">
-        <v>  20424000</v>
+        <v>  33959000</v>
       </c>
     </row>
     <row r="622">
@@ -10383,7 +10396,7 @@
         <v>2011</v>
       </c>
       <c r="D622" t="n">
-        <v>  20934000</v>
+        <v>  34303000</v>
       </c>
     </row>
     <row r="623">
@@ -10397,7 +10410,7 @@
         <v>2012</v>
       </c>
       <c r="D623" t="n">
-        <v>  21458000</v>
+        <v>  34699000</v>
       </c>
     </row>
     <row r="624">
@@ -10411,7 +10424,7 @@
         <v>2013</v>
       </c>
       <c r="D624" t="n">
-        <v>  21994000</v>
+        <v>  35100000</v>
       </c>
     </row>
     <row r="625">
@@ -10425,7 +10438,7 @@
         <v>2014</v>
       </c>
       <c r="D625" t="n">
-        <v>  22544000</v>
+        <v>  35492000</v>
       </c>
     </row>
     <row r="626">
@@ -10439,7 +10452,7 @@
         <v>2015</v>
       </c>
       <c r="D626" t="n">
-        <v>  23108000</v>
+        <v>  35876000</v>
       </c>
     </row>
     <row r="627">
@@ -10453,7 +10466,7 @@
         <v>2016</v>
       </c>
       <c r="D627" t="n">
-        <v>  23685000</v>
+        <v>  36199000</v>
       </c>
     </row>
     <row r="628">
@@ -10467,7 +10480,7 @@
         <v>2017</v>
       </c>
       <c r="D628" t="n">
-        <v>  24277000</v>
+        <v>  36525000</v>
       </c>
     </row>
     <row r="629">
@@ -10481,7 +10494,7 @@
         <v>2018</v>
       </c>
       <c r="D629" t="n">
-        <v>  24884000</v>
+        <v>  36854000</v>
       </c>
     </row>
     <row r="630">
@@ -10495,7 +10508,7 @@
         <v>2019</v>
       </c>
       <c r="D630" t="n">
-        <v>  25506000</v>
+        <v>  37185000</v>
       </c>
     </row>
     <row r="631">
@@ -10509,7 +10522,7 @@
         <v>2020</v>
       </c>
       <c r="D631" t="n">
-        <v>  26144000</v>
+        <v>  37520000</v>
       </c>
     </row>
     <row r="632">
@@ -10523,7 +10536,7 @@
         <v>2000</v>
       </c>
       <c r="D632" t="n">
-        <v>  30647000</v>
+        <v>    442000</v>
       </c>
     </row>
     <row r="633">
@@ -10537,7 +10550,7 @@
         <v>2001</v>
       </c>
       <c r="D633" t="n">
-        <v>  30972000</v>
+        <v>    451000</v>
       </c>
     </row>
     <row r="634">
@@ -10551,7 +10564,7 @@
         <v>2002</v>
       </c>
       <c r="D634" t="n">
-        <v>  31309000</v>
+        <v>    459000</v>
       </c>
     </row>
     <row r="635">
@@ -10565,7 +10578,7 @@
         <v>2003</v>
       </c>
       <c r="D635" t="n">
-        <v>  31602000</v>
+        <v>    467000</v>
       </c>
     </row>
     <row r="636">
@@ -10579,7 +10592,7 @@
         <v>2004</v>
       </c>
       <c r="D636" t="n">
-        <v>  31899000</v>
+        <v>    474000</v>
       </c>
     </row>
     <row r="637">
@@ -10593,7 +10606,7 @@
         <v>2005</v>
       </c>
       <c r="D637" t="n">
-        <v>  32203000</v>
+        <v>    479000</v>
       </c>
     </row>
     <row r="638">
@@ -10607,7 +10620,7 @@
         <v>2006</v>
       </c>
       <c r="D638" t="n">
-        <v>  32529000</v>
+        <v>    482000</v>
       </c>
     </row>
     <row r="639">
@@ -10621,7 +10634,7 @@
         <v>2007</v>
       </c>
       <c r="D639" t="n">
-        <v>  32848000</v>
+        <v>    484000</v>
       </c>
     </row>
     <row r="640">
@@ -10635,7 +10648,7 @@
         <v>2008</v>
       </c>
       <c r="D640" t="n">
-        <v>  33199000</v>
+        <v>    485000</v>
       </c>
     </row>
     <row r="641">
@@ -10649,7 +10662,7 @@
         <v>2009</v>
       </c>
       <c r="D641" t="n">
-        <v>  33581000</v>
+        <v>    486000</v>
       </c>
     </row>
     <row r="642">
@@ -10663,7 +10676,7 @@
         <v>2010</v>
       </c>
       <c r="D642" t="n">
-        <v>  33959000</v>
+        <v>    488000</v>
       </c>
     </row>
     <row r="643">
@@ -10677,7 +10690,7 @@
         <v>2011</v>
       </c>
       <c r="D643" t="n">
-        <v>  34303000</v>
+        <v>    491000</v>
       </c>
     </row>
     <row r="644">
@@ -10691,7 +10704,7 @@
         <v>2012</v>
       </c>
       <c r="D644" t="n">
-        <v>  34699000</v>
+        <v>    506000</v>
       </c>
     </row>
     <row r="645">
@@ -10705,7 +10718,7 @@
         <v>2013</v>
       </c>
       <c r="D645" t="n">
-        <v>  35100000</v>
+        <v>    512000</v>
       </c>
     </row>
     <row r="646">
@@ -10719,7 +10732,7 @@
         <v>2014</v>
       </c>
       <c r="D646" t="n">
-        <v>  35492000</v>
+        <v>    518000</v>
       </c>
     </row>
     <row r="647">
@@ -10733,7 +10746,7 @@
         <v>2015</v>
       </c>
       <c r="D647" t="n">
-        <v>  35876000</v>
+        <v>    525000</v>
       </c>
     </row>
     <row r="648">
@@ -10747,7 +10760,7 @@
         <v>2016</v>
       </c>
       <c r="D648" t="n">
-        <v>  36199000</v>
+        <v>    531000</v>
       </c>
     </row>
     <row r="649">
@@ -10761,7 +10774,7 @@
         <v>2017</v>
       </c>
       <c r="D649" t="n">
-        <v>  36525000</v>
+        <v>    538000</v>
       </c>
     </row>
     <row r="650">
@@ -10775,7 +10788,7 @@
         <v>2018</v>
       </c>
       <c r="D650" t="n">
-        <v>  36854000</v>
+        <v>    545000</v>
       </c>
     </row>
     <row r="651">
@@ -10789,7 +10802,7 @@
         <v>2019</v>
       </c>
       <c r="D651" t="n">
-        <v>  37185000</v>
+        <v>    551000</v>
       </c>
     </row>
     <row r="652">
@@ -10803,7 +10816,7 @@
         <v>2020</v>
       </c>
       <c r="D652" t="n">
-        <v>  37520000</v>
+        <v>    558000</v>
       </c>
     </row>
     <row r="653">
@@ -10817,7 +10830,7 @@
         <v>2000</v>
       </c>
       <c r="D653" t="n">
-        <v>    442000</v>
+        <v>   3638000</v>
       </c>
     </row>
     <row r="654">
@@ -10831,7 +10844,7 @@
         <v>2001</v>
       </c>
       <c r="D654" t="n">
-        <v>    451000</v>
+        <v>   3704000</v>
       </c>
     </row>
     <row r="655">
@@ -10845,7 +10858,7 @@
         <v>2002</v>
       </c>
       <c r="D655" t="n">
-        <v>    459000</v>
+        <v>   3767000</v>
       </c>
     </row>
     <row r="656">
@@ -10859,7 +10872,7 @@
         <v>2003</v>
       </c>
       <c r="D656" t="n">
-        <v>    467000</v>
+        <v>   3830000</v>
       </c>
     </row>
     <row r="657">
@@ -10873,7 +10886,7 @@
         <v>2004</v>
       </c>
       <c r="D657" t="n">
-        <v>    474000</v>
+        <v>   3894000</v>
       </c>
     </row>
     <row r="658">
@@ -10887,7 +10900,7 @@
         <v>2005</v>
       </c>
       <c r="D658" t="n">
-        <v>    479000</v>
+        <v>   3961000</v>
       </c>
     </row>
     <row r="659">
@@ -10901,7 +10914,7 @@
         <v>2006</v>
       </c>
       <c r="D659" t="n">
-        <v>    482000</v>
+        <v>   4032000</v>
       </c>
     </row>
     <row r="660">
@@ -10915,7 +10928,7 @@
         <v>2007</v>
       </c>
       <c r="D660" t="n">
-        <v>    484000</v>
+        <v>   4107000</v>
       </c>
     </row>
     <row r="661">
@@ -10929,7 +10942,7 @@
         <v>2008</v>
       </c>
       <c r="D661" t="n">
-        <v>    485000</v>
+        <v>   4185000</v>
       </c>
     </row>
     <row r="662">
@@ -10943,7 +10956,7 @@
         <v>2009</v>
       </c>
       <c r="D662" t="n">
-        <v>    486000</v>
+        <v>   4266000</v>
       </c>
     </row>
     <row r="663">
@@ -10957,7 +10970,7 @@
         <v>2010</v>
       </c>
       <c r="D663" t="n">
-        <v>    488000</v>
+        <v>   4350000</v>
       </c>
     </row>
     <row r="664">
@@ -10971,7 +10984,7 @@
         <v>2011</v>
       </c>
       <c r="D664" t="n">
-        <v>    491000</v>
+        <v>   4435000</v>
       </c>
     </row>
     <row r="665">
@@ -10985,7 +10998,7 @@
         <v>2012</v>
       </c>
       <c r="D665" t="n">
-        <v>    506000</v>
+        <v>   4522000</v>
       </c>
     </row>
     <row r="666">
@@ -10999,7 +11012,7 @@
         <v>2013</v>
       </c>
       <c r="D666" t="n">
-        <v>    512000</v>
+        <v>   4611000</v>
       </c>
     </row>
     <row r="667">
@@ -11013,7 +11026,7 @@
         <v>2014</v>
       </c>
       <c r="D667" t="n">
-        <v>    518000</v>
+        <v>   4701000</v>
       </c>
     </row>
     <row r="668">
@@ -11027,7 +11040,7 @@
         <v>2015</v>
       </c>
       <c r="D668" t="n">
-        <v>    525000</v>
+        <v>   4794000</v>
       </c>
     </row>
     <row r="669">
@@ -11041,7 +11054,7 @@
         <v>2016</v>
       </c>
       <c r="D669" t="n">
-        <v>    531000</v>
+        <v>   4888000</v>
       </c>
     </row>
     <row r="670">
@@ -11055,7 +11068,7 @@
         <v>2017</v>
       </c>
       <c r="D670" t="n">
-        <v>    538000</v>
+        <v>   4983000</v>
       </c>
     </row>
     <row r="671">
@@ -11069,7 +11082,7 @@
         <v>2018</v>
       </c>
       <c r="D671" t="n">
-        <v>    545000</v>
+        <v>   5081000</v>
       </c>
     </row>
     <row r="672">
@@ -11083,7 +11096,7 @@
         <v>2019</v>
       </c>
       <c r="D672" t="n">
-        <v>    551000</v>
+        <v>   5181000</v>
       </c>
     </row>
     <row r="673">
@@ -11097,7 +11110,7 @@
         <v>2020</v>
       </c>
       <c r="D673" t="n">
-        <v>    558000</v>
+        <v>   5282000</v>
       </c>
     </row>
     <row r="674">
@@ -11111,7 +11124,7 @@
         <v>2000</v>
       </c>
       <c r="D674" t="n">
-        <v>   3638000</v>
+        <v>   7478000</v>
       </c>
     </row>
     <row r="675">
@@ -11125,7 +11138,7 @@
         <v>2001</v>
       </c>
       <c r="D675" t="n">
-        <v>   3704000</v>
+        <v>   7665000</v>
       </c>
     </row>
     <row r="676">
@@ -11139,7 +11152,7 @@
         <v>2002</v>
       </c>
       <c r="D676" t="n">
-        <v>   3767000</v>
+        <v>   7857000</v>
       </c>
     </row>
     <row r="677">
@@ -11153,7 +11166,7 @@
         <v>2003</v>
       </c>
       <c r="D677" t="n">
-        <v>   3830000</v>
+        <v>   8600000</v>
       </c>
     </row>
     <row r="678">
@@ -11167,7 +11180,7 @@
         <v>2004</v>
       </c>
       <c r="D678" t="n">
-        <v>   3894000</v>
+        <v>   8815000</v>
       </c>
     </row>
     <row r="679">
@@ -11181,7 +11194,7 @@
         <v>2005</v>
       </c>
       <c r="D679" t="n">
-        <v>   3961000</v>
+        <v>   9035000</v>
       </c>
     </row>
     <row r="680">
@@ -11195,7 +11208,7 @@
         <v>2006</v>
       </c>
       <c r="D680" t="n">
-        <v>   4032000</v>
+        <v>   9261000</v>
       </c>
     </row>
     <row r="681">
@@ -11209,7 +11222,7 @@
         <v>2007</v>
       </c>
       <c r="D681" t="n">
-        <v>   4107000</v>
+        <v>   9493000</v>
       </c>
     </row>
     <row r="682">
@@ -11223,7 +11236,7 @@
         <v>2008</v>
       </c>
       <c r="D682" t="n">
-        <v>   4185000</v>
+        <v>   9730000</v>
       </c>
     </row>
     <row r="683">
@@ -11237,7 +11250,7 @@
         <v>2009</v>
       </c>
       <c r="D683" t="n">
-        <v>   4266000</v>
+        <v>   9973000</v>
       </c>
     </row>
     <row r="684">
@@ -11251,7 +11264,7 @@
         <v>2010</v>
       </c>
       <c r="D684" t="n">
-        <v>   4350000</v>
+        <v>  10223000</v>
       </c>
     </row>
     <row r="685">
@@ -11265,7 +11278,7 @@
         <v>2011</v>
       </c>
       <c r="D685" t="n">
-        <v>   4435000</v>
+        <v>  10478000</v>
       </c>
     </row>
     <row r="686">
@@ -11279,7 +11292,7 @@
         <v>2012</v>
       </c>
       <c r="D686" t="n">
-        <v>   4522000</v>
+        <v>  10740000</v>
       </c>
     </row>
     <row r="687">
@@ -11293,7 +11306,7 @@
         <v>2013</v>
       </c>
       <c r="D687" t="n">
-        <v>   4611000</v>
+        <v>  11009000</v>
       </c>
     </row>
     <row r="688">
@@ -11307,7 +11320,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>   4701000</v>
+        <v>  11284000</v>
       </c>
     </row>
     <row r="689">
@@ -11321,7 +11334,7 @@
         <v>2015</v>
       </c>
       <c r="D689" t="n">
-        <v>   4794000</v>
+        <v>  11566000</v>
       </c>
     </row>
     <row r="690">
@@ -11335,7 +11348,7 @@
         <v>2016</v>
       </c>
       <c r="D690" t="n">
-        <v>   4888000</v>
+        <v>  11855000</v>
       </c>
     </row>
     <row r="691">
@@ -11349,7 +11362,7 @@
         <v>2017</v>
       </c>
       <c r="D691" t="n">
-        <v>   4983000</v>
+        <v>  12185000</v>
       </c>
     </row>
     <row r="692">
@@ -11363,7 +11376,7 @@
         <v>2018</v>
       </c>
       <c r="D692" t="n">
-        <v>   5081000</v>
+        <v>  12490000</v>
       </c>
     </row>
     <row r="693">
@@ -11377,7 +11390,7 @@
         <v>2019</v>
       </c>
       <c r="D693" t="n">
-        <v>   5181000</v>
+        <v>  12802000</v>
       </c>
     </row>
     <row r="694">
@@ -11391,7 +11404,7 @@
         <v>2020</v>
       </c>
       <c r="D694" t="n">
-        <v>   5282000</v>
+        <v>  13122000</v>
       </c>
     </row>
     <row r="695">
@@ -11405,7 +11418,7 @@
         <v>2000</v>
       </c>
       <c r="D695" t="n">
-        <v>   7478000</v>
+        <v>  15398000</v>
       </c>
     </row>
     <row r="696">
@@ -11419,7 +11432,7 @@
         <v>2001</v>
       </c>
       <c r="D696" t="n">
-        <v>   7665000</v>
+        <v>  15572000</v>
       </c>
     </row>
     <row r="697">
@@ -11433,7 +11446,7 @@
         <v>2002</v>
       </c>
       <c r="D697" t="n">
-        <v>   7857000</v>
+        <v>  15668000</v>
       </c>
     </row>
     <row r="698">
@@ -11447,7 +11460,7 @@
         <v>2003</v>
       </c>
       <c r="D698" t="n">
-        <v>   8600000</v>
+        <v>  15838000</v>
       </c>
     </row>
     <row r="699">
@@ -11461,7 +11474,7 @@
         <v>2004</v>
       </c>
       <c r="D699" t="n">
-        <v>   8815000</v>
+        <v>  16002000</v>
       </c>
     </row>
     <row r="700">
@@ -11475,7 +11488,7 @@
         <v>2005</v>
       </c>
       <c r="D700" t="n">
-        <v>   9035000</v>
+        <v>  16165000</v>
       </c>
     </row>
     <row r="701">
@@ -11489,7 +11502,7 @@
         <v>2006</v>
       </c>
       <c r="D701" t="n">
-        <v>   9261000</v>
+        <v>  16332000</v>
       </c>
     </row>
     <row r="702">
@@ -11503,7 +11516,7 @@
         <v>2007</v>
       </c>
       <c r="D702" t="n">
-        <v>   9493000</v>
+        <v>  16505000</v>
       </c>
     </row>
     <row r="703">
@@ -11517,7 +11530,7 @@
         <v>2008</v>
       </c>
       <c r="D703" t="n">
-        <v>   9730000</v>
+        <v>  16687000</v>
       </c>
     </row>
     <row r="704">
@@ -11531,7 +11544,7 @@
         <v>2009</v>
       </c>
       <c r="D704" t="n">
-        <v>   9973000</v>
+        <v>  16877000</v>
       </c>
     </row>
     <row r="705">
@@ -11545,7 +11558,7 @@
         <v>2010</v>
       </c>
       <c r="D705" t="n">
-        <v>  10223000</v>
+        <v>  17066000</v>
       </c>
     </row>
     <row r="706">
@@ -11559,7 +11572,7 @@
         <v>2011</v>
       </c>
       <c r="D706" t="n">
-        <v>  10478000</v>
+        <v>  17256000</v>
       </c>
     </row>
     <row r="707">
@@ -11573,7 +11586,7 @@
         <v>2012</v>
       </c>
       <c r="D707" t="n">
-        <v>  10740000</v>
+        <v>  17445000</v>
       </c>
     </row>
     <row r="708">
@@ -11587,7 +11600,7 @@
         <v>2013</v>
       </c>
       <c r="D708" t="n">
-        <v>  11009000</v>
+        <v>  17632000</v>
       </c>
     </row>
     <row r="709">
@@ -11601,7 +11614,7 @@
         <v>2014</v>
       </c>
       <c r="D709" t="n">
-        <v>  11284000</v>
+        <v>  17819000</v>
       </c>
     </row>
     <row r="710">
@@ -11615,7 +11628,7 @@
         <v>2015</v>
       </c>
       <c r="D710" t="n">
-        <v>  11566000</v>
+        <v>  18006000</v>
       </c>
     </row>
     <row r="711">
@@ -11629,7 +11642,7 @@
         <v>2016</v>
       </c>
       <c r="D711" t="n">
-        <v>  11855000</v>
+        <v>  18196000</v>
       </c>
     </row>
     <row r="712">
@@ -11643,7 +11656,7 @@
         <v>2017</v>
       </c>
       <c r="D712" t="n">
-        <v>  12185000</v>
+        <v>  18387000</v>
       </c>
     </row>
     <row r="713">
@@ -11657,7 +11670,7 @@
         <v>2018</v>
       </c>
       <c r="D713" t="n">
-        <v>  12490000</v>
+        <v>  18580000</v>
       </c>
     </row>
     <row r="714">
@@ -11671,7 +11684,7 @@
         <v>2019</v>
       </c>
       <c r="D714" t="n">
-        <v>  12802000</v>
+        <v>  18776000</v>
       </c>
     </row>
     <row r="715">
@@ -11685,7 +11698,7 @@
         <v>2020</v>
       </c>
       <c r="D715" t="n">
-        <v>  13122000</v>
+        <v>  18973000</v>
       </c>
     </row>
     <row r="716">
@@ -11699,7 +11712,7 @@
         <v>2000</v>
       </c>
       <c r="D716" t="n">
-        <v>  15398000</v>
+        <v>1267430000</v>
       </c>
     </row>
     <row r="717">
@@ -11713,7 +11726,7 @@
         <v>2001</v>
       </c>
       <c r="D717" t="n">
-        <v>  15572000</v>
+        <v>1276270000</v>
       </c>
     </row>
     <row r="718">
@@ -11727,7 +11740,7 @@
         <v>2002</v>
       </c>
       <c r="D718" t="n">
-        <v>  15668000</v>
+        <v>1284530000</v>
       </c>
     </row>
     <row r="719">
@@ -11741,7 +11754,7 @@
         <v>2003</v>
       </c>
       <c r="D719" t="n">
-        <v>  15838000</v>
+        <v>1292270000</v>
       </c>
     </row>
     <row r="720">
@@ -11755,7 +11768,7 @@
         <v>2004</v>
       </c>
       <c r="D720" t="n">
-        <v>  16002000</v>
+        <v>1299880000</v>
       </c>
     </row>
     <row r="721">
@@ -11769,7 +11782,7 @@
         <v>2005</v>
       </c>
       <c r="D721" t="n">
-        <v>  16165000</v>
+        <v>1307560000</v>
       </c>
     </row>
     <row r="722">
@@ -11783,7 +11796,7 @@
         <v>2006</v>
       </c>
       <c r="D722" t="n">
-        <v>  16332000</v>
+        <v>1314480000</v>
       </c>
     </row>
     <row r="723">
@@ -11797,7 +11810,7 @@
         <v>2007</v>
       </c>
       <c r="D723" t="n">
-        <v>  16505000</v>
+        <v>1321290000</v>
       </c>
     </row>
     <row r="724">
@@ -11811,7 +11824,7 @@
         <v>2008</v>
       </c>
       <c r="D724" t="n">
-        <v>  16687000</v>
+        <v>1328020000</v>
       </c>
     </row>
     <row r="725">
@@ -11825,7 +11838,7 @@
         <v>2009</v>
       </c>
       <c r="D725" t="n">
-        <v>  16877000</v>
+        <v>1334500000</v>
       </c>
     </row>
     <row r="726">
@@ -11839,7 +11852,7 @@
         <v>2010</v>
       </c>
       <c r="D726" t="n">
-        <v>  17066000</v>
+        <v>1340910000</v>
       </c>
     </row>
     <row r="727">
@@ -11853,7 +11866,7 @@
         <v>2011</v>
       </c>
       <c r="D727" t="n">
-        <v>  17256000</v>
+        <v>1347350000</v>
       </c>
     </row>
     <row r="728">
@@ -11867,7 +11880,7 @@
         <v>2012</v>
       </c>
       <c r="D728" t="n">
-        <v>  17445000</v>
+        <v>1354040000</v>
       </c>
     </row>
     <row r="729">
@@ -11881,7 +11894,7 @@
         <v>2013</v>
       </c>
       <c r="D729" t="n">
-        <v>  17632000</v>
+        <v>1360720000</v>
       </c>
     </row>
     <row r="730">
@@ -11895,7 +11908,7 @@
         <v>2014</v>
       </c>
       <c r="D730" t="n">
-        <v>  17819000</v>
+        <v>1367820000</v>
       </c>
     </row>
     <row r="731">
@@ -11909,7 +11922,7 @@
         <v>2015</v>
       </c>
       <c r="D731" t="n">
-        <v>  18006000</v>
+        <v>1374957000</v>
       </c>
     </row>
     <row r="732">
@@ -11923,7 +11936,7 @@
         <v>2016</v>
       </c>
       <c r="D732" t="n">
-        <v>  18196000</v>
+        <v>1382131000</v>
       </c>
     </row>
     <row r="733">
@@ -11937,7 +11950,7 @@
         <v>2017</v>
       </c>
       <c r="D733" t="n">
-        <v>  18387000</v>
+        <v>1389343000</v>
       </c>
     </row>
     <row r="734">
@@ -11951,7 +11964,7 @@
         <v>2018</v>
       </c>
       <c r="D734" t="n">
-        <v>  18580000</v>
+        <v>1396592000</v>
       </c>
     </row>
     <row r="735">
@@ -11965,7 +11978,7 @@
         <v>2019</v>
       </c>
       <c r="D735" t="n">
-        <v>  18776000</v>
+        <v>1403880000</v>
       </c>
     </row>
     <row r="736">
@@ -11979,7 +11992,7 @@
         <v>2020</v>
       </c>
       <c r="D736" t="n">
-        <v>  18973000</v>
+        <v>1411205000</v>
       </c>
     </row>
     <row r="737">
@@ -11993,7 +12006,7 @@
         <v>2000</v>
       </c>
       <c r="D737" t="n">
-        <v>1267430000</v>
+        <v>  40296000</v>
       </c>
     </row>
     <row r="738">
@@ -12007,7 +12020,7 @@
         <v>2001</v>
       </c>
       <c r="D738" t="n">
-        <v>1276270000</v>
+        <v>  40814000</v>
       </c>
     </row>
     <row r="739">
@@ -12021,7 +12034,7 @@
         <v>2002</v>
       </c>
       <c r="D739" t="n">
-        <v>1284530000</v>
+        <v>  41329000</v>
       </c>
     </row>
     <row r="740">
@@ -12035,7 +12048,7 @@
         <v>2003</v>
       </c>
       <c r="D740" t="n">
-        <v>1292270000</v>
+        <v>  41849000</v>
       </c>
     </row>
     <row r="741">
@@ -12049,7 +12062,7 @@
         <v>2004</v>
       </c>
       <c r="D741" t="n">
-        <v>1299880000</v>
+        <v>  42368000</v>
       </c>
     </row>
     <row r="742">
@@ -12063,7 +12076,7 @@
         <v>2005</v>
       </c>
       <c r="D742" t="n">
-        <v>1307560000</v>
+        <v>  42889000</v>
       </c>
     </row>
     <row r="743">
@@ -12077,7 +12090,7 @@
         <v>2006</v>
       </c>
       <c r="D743" t="n">
-        <v>1314480000</v>
+        <v>  43406000</v>
       </c>
     </row>
     <row r="744">
@@ -12091,7 +12104,7 @@
         <v>2007</v>
       </c>
       <c r="D744" t="n">
-        <v>1321290000</v>
+        <v>  43927000</v>
       </c>
     </row>
     <row r="745">
@@ -12105,7 +12118,7 @@
         <v>2008</v>
       </c>
       <c r="D745" t="n">
-        <v>1328020000</v>
+        <v>  44451000</v>
       </c>
     </row>
     <row r="746">
@@ -12119,7 +12132,7 @@
         <v>2009</v>
       </c>
       <c r="D746" t="n">
-        <v>1334500000</v>
+        <v>  44979000</v>
       </c>
     </row>
     <row r="747">
@@ -12133,7 +12146,7 @@
         <v>2010</v>
       </c>
       <c r="D747" t="n">
-        <v>1340910000</v>
+        <v>  45510000</v>
       </c>
     </row>
     <row r="748">
@@ -12147,7 +12160,7 @@
         <v>2011</v>
       </c>
       <c r="D748" t="n">
-        <v>1347350000</v>
+        <v>  46045000</v>
       </c>
     </row>
     <row r="749">
@@ -12161,7 +12174,7 @@
         <v>2012</v>
       </c>
       <c r="D749" t="n">
-        <v>1354040000</v>
+        <v>  46582000</v>
       </c>
     </row>
     <row r="750">
@@ -12175,7 +12188,7 @@
         <v>2013</v>
       </c>
       <c r="D750" t="n">
-        <v>1360720000</v>
+        <v>  47121000</v>
       </c>
     </row>
     <row r="751">
@@ -12189,7 +12202,7 @@
         <v>2014</v>
       </c>
       <c r="D751" t="n">
-        <v>1367820000</v>
+        <v>  47662000</v>
       </c>
     </row>
     <row r="752">
@@ -12203,7 +12216,7 @@
         <v>2015</v>
       </c>
       <c r="D752" t="n">
-        <v>1374957000</v>
+        <v>  48209000</v>
       </c>
     </row>
     <row r="753">
@@ -12217,7 +12230,7 @@
         <v>2016</v>
       </c>
       <c r="D753" t="n">
-        <v>1382131000</v>
+        <v>  48763000</v>
       </c>
     </row>
     <row r="754">
@@ -12231,7 +12244,7 @@
         <v>2017</v>
       </c>
       <c r="D754" t="n">
-        <v>1389343000</v>
+        <v>  49323000</v>
       </c>
     </row>
     <row r="755">
@@ -12245,7 +12258,7 @@
         <v>2018</v>
       </c>
       <c r="D755" t="n">
-        <v>1396592000</v>
+        <v>  49889000</v>
       </c>
     </row>
     <row r="756">
@@ -12259,7 +12272,7 @@
         <v>2019</v>
       </c>
       <c r="D756" t="n">
-        <v>1403880000</v>
+        <v>  50462000</v>
       </c>
     </row>
     <row r="757">
@@ -12273,7 +12286,7 @@
         <v>2020</v>
       </c>
       <c r="D757" t="n">
-        <v>1411205000</v>
+        <v>  51041000</v>
       </c>
     </row>
     <row r="758">
@@ -12287,7 +12300,7 @@
         <v>2000</v>
       </c>
       <c r="D758" t="n">
-        <v>  40296000</v>
+        <v>    540000</v>
       </c>
     </row>
     <row r="759">
@@ -12301,7 +12314,7 @@
         <v>2001</v>
       </c>
       <c r="D759" t="n">
-        <v>  40814000</v>
+        <v>    552000</v>
       </c>
     </row>
     <row r="760">
@@ -12315,7 +12328,7 @@
         <v>2002</v>
       </c>
       <c r="D760" t="n">
-        <v>  41329000</v>
+        <v>    564000</v>
       </c>
     </row>
     <row r="761">
@@ -12329,7 +12342,7 @@
         <v>2003</v>
       </c>
       <c r="D761" t="n">
-        <v>  41849000</v>
+        <v>    576000</v>
       </c>
     </row>
     <row r="762">
@@ -12343,7 +12356,7 @@
         <v>2004</v>
       </c>
       <c r="D762" t="n">
-        <v>  42368000</v>
+        <v>    593000</v>
       </c>
     </row>
     <row r="763">
@@ -12357,7 +12370,7 @@
         <v>2005</v>
       </c>
       <c r="D763" t="n">
-        <v>  42889000</v>
+        <v>    600000</v>
       </c>
     </row>
     <row r="764">
@@ -12371,7 +12384,7 @@
         <v>2006</v>
       </c>
       <c r="D764" t="n">
-        <v>  43406000</v>
+        <v>    613000</v>
       </c>
     </row>
     <row r="765">
@@ -12385,7 +12398,7 @@
         <v>2007</v>
       </c>
       <c r="D765" t="n">
-        <v>  43927000</v>
+        <v>    631000</v>
       </c>
     </row>
     <row r="766">
@@ -12399,7 +12412,7 @@
         <v>2008</v>
       </c>
       <c r="D766" t="n">
-        <v>  44451000</v>
+        <v>    650000</v>
       </c>
     </row>
     <row r="767">
@@ -12413,7 +12426,7 @@
         <v>2009</v>
       </c>
       <c r="D767" t="n">
-        <v>  44979000</v>
+        <v>    670000</v>
       </c>
     </row>
     <row r="768">
@@ -12427,7 +12440,7 @@
         <v>2010</v>
       </c>
       <c r="D768" t="n">
-        <v>  45510000</v>
+        <v>    690000</v>
       </c>
     </row>
     <row r="769">
@@ -12441,7 +12454,7 @@
         <v>2011</v>
       </c>
       <c r="D769" t="n">
-        <v>  46045000</v>
+        <v>    710000</v>
       </c>
     </row>
     <row r="770">
@@ -12455,7 +12468,7 @@
         <v>2012</v>
       </c>
       <c r="D770" t="n">
-        <v>  46582000</v>
+        <v>    732000</v>
       </c>
     </row>
     <row r="771">
@@ -12469,7 +12482,7 @@
         <v>2013</v>
       </c>
       <c r="D771" t="n">
-        <v>  47121000</v>
+        <v>    754000</v>
       </c>
     </row>
     <row r="772">
@@ -12483,7 +12496,7 @@
         <v>2014</v>
       </c>
       <c r="D772" t="n">
-        <v>  47662000</v>
+        <v>    776000</v>
       </c>
     </row>
     <row r="773">
@@ -12497,7 +12510,7 @@
         <v>2015</v>
       </c>
       <c r="D773" t="n">
-        <v>  48209000</v>
+        <v>    799000</v>
       </c>
     </row>
     <row r="774">
@@ -12511,7 +12524,7 @@
         <v>2016</v>
       </c>
       <c r="D774" t="n">
-        <v>  48763000</v>
+        <v>    823000</v>
       </c>
     </row>
     <row r="775">
@@ -12525,7 +12538,7 @@
         <v>2017</v>
       </c>
       <c r="D775" t="n">
-        <v>  49323000</v>
+        <v>    848000</v>
       </c>
     </row>
     <row r="776">
@@ -12539,7 +12552,7 @@
         <v>2018</v>
       </c>
       <c r="D776" t="n">
-        <v>  49889000</v>
+        <v>    874000</v>
       </c>
     </row>
     <row r="777">
@@ -12553,7 +12566,7 @@
         <v>2019</v>
       </c>
       <c r="D777" t="n">
-        <v>  50462000</v>
+        <v>    900000</v>
       </c>
     </row>
     <row r="778">
@@ -12567,7 +12580,7 @@
         <v>2020</v>
       </c>
       <c r="D778" t="n">
-        <v>  51041000</v>
+        <v>    927000</v>
       </c>
     </row>
     <row r="779">
@@ -12581,7 +12594,7 @@
         <v>2000</v>
       </c>
       <c r="D779" t="n">
-        <v>    540000</v>
+        <v>   2904000</v>
       </c>
     </row>
     <row r="780">
@@ -12595,7 +12608,7 @@
         <v>2001</v>
       </c>
       <c r="D780" t="n">
-        <v>    552000</v>
+        <v>   2988000</v>
       </c>
     </row>
     <row r="781">
@@ -12609,7 +12622,7 @@
         <v>2002</v>
       </c>
       <c r="D781" t="n">
-        <v>    564000</v>
+        <v>   3075000</v>
       </c>
     </row>
     <row r="782">
@@ -12623,7 +12636,7 @@
         <v>2003</v>
       </c>
       <c r="D782" t="n">
-        <v>    576000</v>
+        <v>   3164000</v>
       </c>
     </row>
     <row r="783">
@@ -12637,7 +12650,7 @@
         <v>2004</v>
       </c>
       <c r="D783" t="n">
-        <v>    593000</v>
+        <v>   3256000</v>
       </c>
     </row>
     <row r="784">
@@ -12651,7 +12664,7 @@
         <v>2005</v>
       </c>
       <c r="D784" t="n">
-        <v>    600000</v>
+        <v>   3350000</v>
       </c>
     </row>
     <row r="785">
@@ -12665,7 +12678,7 @@
         <v>2006</v>
       </c>
       <c r="D785" t="n">
-        <v>    613000</v>
+        <v>   3447000</v>
       </c>
     </row>
     <row r="786">
@@ -12679,7 +12692,7 @@
         <v>2007</v>
       </c>
       <c r="D786" t="n">
-        <v>    631000</v>
+        <v>   3547000</v>
       </c>
     </row>
     <row r="787">
@@ -12693,7 +12706,7 @@
         <v>2008</v>
       </c>
       <c r="D787" t="n">
-        <v>    650000</v>
+        <v>   3650000</v>
       </c>
     </row>
     <row r="788">
@@ -12707,7 +12720,7 @@
         <v>2009</v>
       </c>
       <c r="D788" t="n">
-        <v>    670000</v>
+        <v>   3756000</v>
       </c>
     </row>
     <row r="789">
@@ -12721,7 +12734,7 @@
         <v>2010</v>
       </c>
       <c r="D789" t="n">
-        <v>    690000</v>
+        <v>   3865000</v>
       </c>
     </row>
     <row r="790">
@@ -12735,7 +12748,7 @@
         <v>2011</v>
       </c>
       <c r="D790" t="n">
-        <v>    710000</v>
+        <v>   3977000</v>
       </c>
     </row>
     <row r="791">
@@ -12749,7 +12762,7 @@
         <v>2012</v>
       </c>
       <c r="D791" t="n">
-        <v>    732000</v>
+        <v>   4092000</v>
       </c>
     </row>
     <row r="792">
@@ -12763,7 +12776,7 @@
         <v>2013</v>
       </c>
       <c r="D792" t="n">
-        <v>    754000</v>
+        <v>   4182000</v>
       </c>
     </row>
     <row r="793">
@@ -12777,7 +12790,7 @@
         <v>2014</v>
       </c>
       <c r="D793" t="n">
-        <v>    776000</v>
+        <v>   4274000</v>
       </c>
     </row>
     <row r="794">
@@ -12791,7 +12804,7 @@
         <v>2015</v>
       </c>
       <c r="D794" t="n">
-        <v>    799000</v>
+        <v>   4368000</v>
       </c>
     </row>
     <row r="795">
@@ -12805,7 +12818,7 @@
         <v>2016</v>
       </c>
       <c r="D795" t="n">
-        <v>    823000</v>
+        <v>   4460000</v>
       </c>
     </row>
     <row r="796">
@@ -12819,7 +12832,7 @@
         <v>2017</v>
       </c>
       <c r="D796" t="n">
-        <v>    848000</v>
+        <v>   4554000</v>
       </c>
     </row>
     <row r="797">
@@ -12833,7 +12846,7 @@
         <v>2018</v>
       </c>
       <c r="D797" t="n">
-        <v>    874000</v>
+        <v>   4650000</v>
       </c>
     </row>
     <row r="798">
@@ -12847,7 +12860,7 @@
         <v>2019</v>
       </c>
       <c r="D798" t="n">
-        <v>    900000</v>
+        <v>   4748000</v>
       </c>
     </row>
     <row r="799">
@@ -12861,7 +12874,7 @@
         <v>2020</v>
       </c>
       <c r="D799" t="n">
-        <v>    927000</v>
+        <v>   4848000</v>
       </c>
     </row>
     <row r="800">
@@ -12875,7 +12888,7 @@
         <v>2000</v>
       </c>
       <c r="D800" t="n">
-        <v>   2904000</v>
+        <v>   3810000</v>
       </c>
     </row>
     <row r="801">
@@ -12889,7 +12902,7 @@
         <v>2001</v>
       </c>
       <c r="D801" t="n">
-        <v>   2988000</v>
+        <v>   3953000</v>
       </c>
     </row>
     <row r="802">
@@ -12903,7 +12916,7 @@
         <v>2002</v>
       </c>
       <c r="D802" t="n">
-        <v>   3075000</v>
+        <v>   4022000</v>
       </c>
     </row>
     <row r="803">
@@ -12917,7 +12930,7 @@
         <v>2003</v>
       </c>
       <c r="D803" t="n">
-        <v>   3164000</v>
+        <v>   4086000</v>
       </c>
     </row>
     <row r="804">
@@ -12931,7 +12944,7 @@
         <v>2004</v>
       </c>
       <c r="D804" t="n">
-        <v>   3256000</v>
+        <v>   4152000</v>
       </c>
     </row>
     <row r="805">
@@ -12945,7 +12958,7 @@
         <v>2005</v>
       </c>
       <c r="D805" t="n">
-        <v>   3350000</v>
+        <v>   4215000</v>
       </c>
     </row>
     <row r="806">
@@ -12959,7 +12972,7 @@
         <v>2006</v>
       </c>
       <c r="D806" t="n">
-        <v>   3447000</v>
+        <v>   4279000</v>
       </c>
     </row>
     <row r="807">
@@ -12973,7 +12986,7 @@
         <v>2007</v>
       </c>
       <c r="D807" t="n">
-        <v>   3547000</v>
+        <v>   4340000</v>
       </c>
     </row>
     <row r="808">
@@ -12987,7 +13000,7 @@
         <v>2008</v>
       </c>
       <c r="D808" t="n">
-        <v>   3650000</v>
+        <v>   4404000</v>
       </c>
     </row>
     <row r="809">
@@ -13001,7 +13014,7 @@
         <v>2009</v>
       </c>
       <c r="D809" t="n">
-        <v>   3756000</v>
+        <v>   4469000</v>
       </c>
     </row>
     <row r="810">
@@ -13015,7 +13028,7 @@
         <v>2010</v>
       </c>
       <c r="D810" t="n">
-        <v>   3865000</v>
+        <v>   4534000</v>
       </c>
     </row>
     <row r="811">
@@ -13029,7 +13042,7 @@
         <v>2011</v>
       </c>
       <c r="D811" t="n">
-        <v>   3977000</v>
+        <v>   4592000</v>
       </c>
     </row>
     <row r="812">
@@ -13043,7 +13056,7 @@
         <v>2012</v>
       </c>
       <c r="D812" t="n">
-        <v>   4092000</v>
+        <v>   4652000</v>
       </c>
     </row>
     <row r="813">
@@ -13057,7 +13070,7 @@
         <v>2013</v>
       </c>
       <c r="D813" t="n">
-        <v>   4182000</v>
+        <v>   4713000</v>
       </c>
     </row>
     <row r="814">
@@ -13071,7 +13084,7 @@
         <v>2014</v>
       </c>
       <c r="D814" t="n">
-        <v>   4274000</v>
+        <v>   4775000</v>
       </c>
     </row>
     <row r="815">
@@ -13085,7 +13098,7 @@
         <v>2015</v>
       </c>
       <c r="D815" t="n">
-        <v>   4368000</v>
+        <v>   4837000</v>
       </c>
     </row>
     <row r="816">
@@ -13099,7 +13112,7 @@
         <v>2016</v>
       </c>
       <c r="D816" t="n">
-        <v>   4460000</v>
+        <v>   4900000</v>
       </c>
     </row>
     <row r="817">
@@ -13113,7 +13126,7 @@
         <v>2017</v>
       </c>
       <c r="D817" t="n">
-        <v>   4554000</v>
+        <v>   4964000</v>
       </c>
     </row>
     <row r="818">
@@ -13127,7 +13140,7 @@
         <v>2018</v>
       </c>
       <c r="D818" t="n">
-        <v>   4650000</v>
+        <v>   5029000</v>
       </c>
     </row>
     <row r="819">
@@ -13141,7 +13154,7 @@
         <v>2019</v>
       </c>
       <c r="D819" t="n">
-        <v>   4748000</v>
+        <v>   5094000</v>
       </c>
     </row>
     <row r="820">
@@ -13155,7 +13168,7 @@
         <v>2020</v>
       </c>
       <c r="D820" t="n">
-        <v>   4848000</v>
+        <v>   5161000</v>
       </c>
     </row>
     <row r="821">
@@ -13169,7 +13182,7 @@
         <v>2000</v>
       </c>
       <c r="D821" t="n">
-        <v>   3810000</v>
+        <v>  15554000</v>
       </c>
     </row>
     <row r="822">
@@ -13183,7 +13196,7 @@
         <v>2001</v>
       </c>
       <c r="D822" t="n">
-        <v>   3953000</v>
+        <v>  16020000</v>
       </c>
     </row>
     <row r="823">
@@ -13197,7 +13210,7 @@
         <v>2002</v>
       </c>
       <c r="D823" t="n">
-        <v>   4022000</v>
+        <v>  16501000</v>
       </c>
     </row>
     <row r="824">
@@ -13211,7 +13224,7 @@
         <v>2003</v>
       </c>
       <c r="D824" t="n">
-        <v>   4086000</v>
+        <v>  16996000</v>
       </c>
     </row>
     <row r="825">
@@ -13225,7 +13238,7 @@
         <v>2004</v>
       </c>
       <c r="D825" t="n">
-        <v>   4152000</v>
+        <v>  17506000</v>
       </c>
     </row>
     <row r="826">
@@ -13239,7 +13252,7 @@
         <v>2005</v>
       </c>
       <c r="D826" t="n">
-        <v>   4215000</v>
+        <v>  18031000</v>
       </c>
     </row>
     <row r="827">
@@ -13253,7 +13266,7 @@
         <v>2006</v>
       </c>
       <c r="D827" t="n">
-        <v>   4279000</v>
+        <v>  18500000</v>
       </c>
     </row>
     <row r="828">
@@ -13267,7 +13280,7 @@
         <v>2007</v>
       </c>
       <c r="D828" t="n">
-        <v>   4340000</v>
+        <v>  18981000</v>
       </c>
     </row>
     <row r="829">
@@ -13281,7 +13294,7 @@
         <v>2008</v>
       </c>
       <c r="D829" t="n">
-        <v>   4404000</v>
+        <v>  19475000</v>
       </c>
     </row>
     <row r="830">
@@ -13295,7 +13308,7 @@
         <v>2009</v>
       </c>
       <c r="D830" t="n">
-        <v>   4469000</v>
+        <v>  19981000</v>
       </c>
     </row>
     <row r="831">
@@ -13309,7 +13322,7 @@
         <v>2010</v>
       </c>
       <c r="D831" t="n">
-        <v>   4534000</v>
+        <v>  20500000</v>
       </c>
     </row>
     <row r="832">
@@ -13323,7 +13336,7 @@
         <v>2011</v>
       </c>
       <c r="D832" t="n">
-        <v>   4592000</v>
+        <v>  21033000</v>
       </c>
     </row>
     <row r="833">
@@ -13337,7 +13350,7 @@
         <v>2012</v>
       </c>
       <c r="D833" t="n">
-        <v>   4652000</v>
+        <v>  21580000</v>
       </c>
     </row>
     <row r="834">
@@ -13351,7 +13364,7 @@
         <v>2013</v>
       </c>
       <c r="D834" t="n">
-        <v>   4713000</v>
+        <v>  22141000</v>
       </c>
     </row>
     <row r="835">
@@ -13365,7 +13378,7 @@
         <v>2014</v>
       </c>
       <c r="D835" t="n">
-        <v>   4775000</v>
+        <v>  22717000</v>
       </c>
     </row>
     <row r="836">
@@ -13379,7 +13392,7 @@
         <v>2015</v>
       </c>
       <c r="D836" t="n">
-        <v>   4837000</v>
+        <v>  23308000</v>
       </c>
     </row>
     <row r="837">
@@ -13393,7 +13406,7 @@
         <v>2016</v>
       </c>
       <c r="D837" t="n">
-        <v>   4900000</v>
+        <v>  23914000</v>
       </c>
     </row>
     <row r="838">
@@ -13407,7 +13420,7 @@
         <v>2017</v>
       </c>
       <c r="D838" t="n">
-        <v>   4964000</v>
+        <v>  24535000</v>
       </c>
     </row>
     <row r="839">
@@ -13421,7 +13434,7 @@
         <v>2018</v>
       </c>
       <c r="D839" t="n">
-        <v>   5029000</v>
+        <v>  25173000</v>
       </c>
     </row>
     <row r="840">
@@ -13435,7 +13448,7 @@
         <v>2019</v>
       </c>
       <c r="D840" t="n">
-        <v>   5094000</v>
+        <v>  25828000</v>
       </c>
     </row>
     <row r="841">
@@ -13449,7 +13462,7 @@
         <v>2020</v>
       </c>
       <c r="D841" t="n">
-        <v>   5161000</v>
+        <v>  26499000</v>
       </c>
     </row>
     <row r="842">
@@ -53959,7 +53972,7 @@
         <v>2000</v>
       </c>
       <c r="D3740" t="n">
-        <v>  49115000</v>
+        <v>  58886000</v>
       </c>
     </row>
     <row r="3741">
@@ -53973,7 +53986,7 @@
         <v>2001</v>
       </c>
       <c r="D3741" t="n">
-        <v>  48241000</v>
+        <v>  59113000</v>
       </c>
     </row>
     <row r="3742">
@@ -53987,7 +54000,7 @@
         <v>2002</v>
       </c>
       <c r="D3742" t="n">
-        <v>  47823000</v>
+        <v>  59319000</v>
       </c>
     </row>
     <row r="3743">
@@ -54001,7 +54014,7 @@
         <v>2003</v>
       </c>
       <c r="D3743" t="n">
-        <v>  47442000</v>
+        <v>  59552000</v>
       </c>
     </row>
     <row r="3744">
@@ -54015,7 +54028,7 @@
         <v>2004</v>
       </c>
       <c r="D3744" t="n">
-        <v>  47101000</v>
+        <v>  59842000</v>
       </c>
     </row>
     <row r="3745">
@@ -54029,7 +54042,7 @@
         <v>2005</v>
       </c>
       <c r="D3745" t="n">
-        <v>  46749000</v>
+        <v>  60235000</v>
       </c>
     </row>
     <row r="3746">
@@ -54043,7 +54056,7 @@
         <v>2006</v>
       </c>
       <c r="D3746" t="n">
-        <v>  46466000</v>
+        <v>  60584000</v>
       </c>
     </row>
     <row r="3747">
@@ -54057,7 +54070,7 @@
         <v>2007</v>
       </c>
       <c r="D3747" t="n">
-        <v>  46192000</v>
+        <v>  60986000</v>
       </c>
     </row>
     <row r="3748">
@@ -54071,7 +54084,7 @@
         <v>2008</v>
       </c>
       <c r="D3748" t="n">
-        <v>  45963000</v>
+        <v>  61398000</v>
       </c>
     </row>
     <row r="3749">
@@ -54085,7 +54098,7 @@
         <v>2009</v>
       </c>
       <c r="D3749" t="n">
-        <v>  45783000</v>
+        <v>  61792000</v>
       </c>
     </row>
     <row r="3750">
@@ -54099,7 +54112,7 @@
         <v>2010</v>
       </c>
       <c r="D3750" t="n">
-        <v>  45598000</v>
+        <v>  62262000</v>
       </c>
     </row>
     <row r="3751">
@@ -54113,7 +54126,7 @@
         <v>2011</v>
       </c>
       <c r="D3751" t="n">
-        <v>  45453000</v>
+        <v>  63285000</v>
       </c>
     </row>
     <row r="3752">
@@ -54127,7 +54140,7 @@
         <v>2012</v>
       </c>
       <c r="D3752" t="n">
-        <v>  45373000</v>
+        <v>  63705000</v>
       </c>
     </row>
     <row r="3753">
@@ -54141,7 +54154,7 @@
         <v>2013</v>
       </c>
       <c r="D3753" t="n">
-        <v>  42904000</v>
+        <v>  64087000</v>
       </c>
     </row>
     <row r="3754">
@@ -54155,7 +54168,7 @@
         <v>2014</v>
       </c>
       <c r="D3754" t="n">
-        <v>  42775000</v>
+        <v>  64511000</v>
       </c>
     </row>
     <row r="3755">
@@ -54169,7 +54182,7 @@
         <v>2015</v>
       </c>
       <c r="D3755" t="n">
-        <v>  42685000</v>
+        <v>  64938000</v>
       </c>
     </row>
     <row r="3756">
@@ -54183,7 +54196,7 @@
         <v>2016</v>
       </c>
       <c r="D3756" t="n">
-        <v>  42595000</v>
+        <v>  65386000</v>
       </c>
     </row>
     <row r="3757">
@@ -54197,7 +54210,7 @@
         <v>2017</v>
       </c>
       <c r="D3757" t="n">
-        <v>  42506000</v>
+        <v>  65825000</v>
       </c>
     </row>
     <row r="3758">
@@ -54211,7 +54224,7 @@
         <v>2018</v>
       </c>
       <c r="D3758" t="n">
-        <v>  42417000</v>
+        <v>  66266000</v>
       </c>
     </row>
     <row r="3759">
@@ -54225,7 +54238,7 @@
         <v>2019</v>
       </c>
       <c r="D3759" t="n">
-        <v>  42328000</v>
+        <v>  66697000</v>
       </c>
     </row>
     <row r="3760">
@@ -54239,7 +54252,7 @@
         <v>2020</v>
       </c>
       <c r="D3760" t="n">
-        <v>  42239000</v>
+        <v>  67126000</v>
       </c>
     </row>
     <row r="3761">
@@ -54253,7 +54266,7 @@
         <v>2000</v>
       </c>
       <c r="D3761" t="n">
-        <v>  58886000</v>
+        <v>  49115000</v>
       </c>
     </row>
     <row r="3762">
@@ -54267,7 +54280,7 @@
         <v>2001</v>
       </c>
       <c r="D3762" t="n">
-        <v>  59113000</v>
+        <v>  48241000</v>
       </c>
     </row>
     <row r="3763">
@@ -54281,7 +54294,7 @@
         <v>2002</v>
       </c>
       <c r="D3763" t="n">
-        <v>  59319000</v>
+        <v>  47823000</v>
       </c>
     </row>
     <row r="3764">
@@ -54295,7 +54308,7 @@
         <v>2003</v>
       </c>
       <c r="D3764" t="n">
-        <v>  59552000</v>
+        <v>  47442000</v>
       </c>
     </row>
     <row r="3765">
@@ -54309,7 +54322,7 @@
         <v>2004</v>
       </c>
       <c r="D3765" t="n">
-        <v>  59842000</v>
+        <v>  47101000</v>
       </c>
     </row>
     <row r="3766">
@@ -54323,7 +54336,7 @@
         <v>2005</v>
       </c>
       <c r="D3766" t="n">
-        <v>  60235000</v>
+        <v>  46749000</v>
       </c>
     </row>
     <row r="3767">
@@ -54337,7 +54350,7 @@
         <v>2006</v>
       </c>
       <c r="D3767" t="n">
-        <v>  60584000</v>
+        <v>  46466000</v>
       </c>
     </row>
     <row r="3768">
@@ -54351,7 +54364,7 @@
         <v>2007</v>
       </c>
       <c r="D3768" t="n">
-        <v>  60986000</v>
+        <v>  46192000</v>
       </c>
     </row>
     <row r="3769">
@@ -54365,7 +54378,7 @@
         <v>2008</v>
       </c>
       <c r="D3769" t="n">
-        <v>  61398000</v>
+        <v>  45963000</v>
       </c>
     </row>
     <row r="3770">
@@ -54379,7 +54392,7 @@
         <v>2009</v>
       </c>
       <c r="D3770" t="n">
-        <v>  61792000</v>
+        <v>  45783000</v>
       </c>
     </row>
     <row r="3771">
@@ -54393,7 +54406,7 @@
         <v>2010</v>
       </c>
       <c r="D3771" t="n">
-        <v>  62262000</v>
+        <v>  45598000</v>
       </c>
     </row>
     <row r="3772">
@@ -54407,7 +54420,7 @@
         <v>2011</v>
       </c>
       <c r="D3772" t="n">
-        <v>  63285000</v>
+        <v>  45453000</v>
       </c>
     </row>
     <row r="3773">
@@ -54421,7 +54434,7 @@
         <v>2012</v>
       </c>
       <c r="D3773" t="n">
-        <v>  63705000</v>
+        <v>  45373000</v>
       </c>
     </row>
     <row r="3774">
@@ -54435,7 +54448,7 @@
         <v>2013</v>
       </c>
       <c r="D3774" t="n">
-        <v>  64087000</v>
+        <v>  42904000</v>
       </c>
     </row>
     <row r="3775">
@@ -54449,7 +54462,7 @@
         <v>2014</v>
       </c>
       <c r="D3775" t="n">
-        <v>  64511000</v>
+        <v>  42775000</v>
       </c>
     </row>
     <row r="3776">
@@ -54463,7 +54476,7 @@
         <v>2015</v>
       </c>
       <c r="D3776" t="n">
-        <v>  64938000</v>
+        <v>  42685000</v>
       </c>
     </row>
     <row r="3777">
@@ -54477,7 +54490,7 @@
         <v>2016</v>
       </c>
       <c r="D3777" t="n">
-        <v>  65386000</v>
+        <v>  42595000</v>
       </c>
     </row>
     <row r="3778">
@@ -54491,7 +54504,7 @@
         <v>2017</v>
       </c>
       <c r="D3778" t="n">
-        <v>  65825000</v>
+        <v>  42506000</v>
       </c>
     </row>
     <row r="3779">
@@ -54505,7 +54518,7 @@
         <v>2018</v>
       </c>
       <c r="D3779" t="n">
-        <v>  66266000</v>
+        <v>  42417000</v>
       </c>
     </row>
     <row r="3780">
@@ -54519,7 +54532,7 @@
         <v>2019</v>
       </c>
       <c r="D3780" t="n">
-        <v>  66697000</v>
+        <v>  42328000</v>
       </c>
     </row>
     <row r="3781">
@@ -54533,7 +54546,7 @@
         <v>2020</v>
       </c>
       <c r="D3781" t="n">
-        <v>  67126000</v>
+        <v>  42239000</v>
       </c>
     </row>
     <row r="3782">
@@ -59186,67 +59199,67 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>  15554000</v>
+        <v>  12223000</v>
       </c>
       <c r="D29" t="n">
-        <v>  16020000</v>
+        <v>  12473000</v>
       </c>
       <c r="E29" t="n">
-        <v>  16501000</v>
+        <v>  12709000</v>
       </c>
       <c r="F29" t="n">
-        <v>  16996000</v>
+        <v>  12934000</v>
       </c>
       <c r="G29" t="n">
-        <v>  17506000</v>
+        <v>  13149000</v>
       </c>
       <c r="H29" t="n">
-        <v>  18031000</v>
+        <v>  13356000</v>
       </c>
       <c r="I29" t="n">
-        <v>  18500000</v>
+        <v>  13555000</v>
       </c>
       <c r="J29" t="n">
-        <v>  18981000</v>
+        <v>  13747000</v>
       </c>
       <c r="K29" t="n">
-        <v>  19475000</v>
+        <v>  13941000</v>
       </c>
       <c r="L29" t="n">
-        <v>  19981000</v>
+        <v>  14144000</v>
       </c>
       <c r="M29" t="n">
-        <v>  20500000</v>
+        <v>  14365000</v>
       </c>
       <c r="N29" t="n">
-        <v>  21033000</v>
+        <v>  14605000</v>
       </c>
       <c r="O29" t="n">
-        <v>  21580000</v>
+        <v>  14864000</v>
       </c>
       <c r="P29" t="n">
-        <v>  22141000</v>
+        <v>  15087000</v>
       </c>
       <c r="Q29" t="n">
-        <v>  22717000</v>
+        <v>  15313000</v>
       </c>
       <c r="R29" t="n">
-        <v>  23308000</v>
+        <v>  15543000</v>
       </c>
       <c r="S29" t="n">
-        <v>  23914000</v>
+        <v>  15776000</v>
       </c>
       <c r="T29" t="n">
-        <v>  24535000</v>
+        <v>  16013000</v>
       </c>
       <c r="U29" t="n">
-        <v>  25173000</v>
+        <v>  16253000</v>
       </c>
       <c r="V29" t="n">
-        <v>  25828000</v>
+        <v>  16497000</v>
       </c>
       <c r="W29" t="n">
-        <v>  26499000</v>
+        <v>  16744000</v>
       </c>
     </row>
     <row r="30">
@@ -59257,67 +59270,67 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>  12223000</v>
+        <v>  15541000</v>
       </c>
       <c r="D30" t="n">
-        <v>  12473000</v>
+        <v>  15976000</v>
       </c>
       <c r="E30" t="n">
-        <v>  12709000</v>
+        <v>  16423000</v>
       </c>
       <c r="F30" t="n">
-        <v>  12934000</v>
+        <v>  16883000</v>
       </c>
       <c r="G30" t="n">
-        <v>  13149000</v>
+        <v>  17356000</v>
       </c>
       <c r="H30" t="n">
-        <v>  13356000</v>
+        <v>  17842000</v>
       </c>
       <c r="I30" t="n">
-        <v>  13555000</v>
+        <v>  18341000</v>
       </c>
       <c r="J30" t="n">
-        <v>  13747000</v>
+        <v>  18855000</v>
       </c>
       <c r="K30" t="n">
-        <v>  13941000</v>
+        <v>  19383000</v>
       </c>
       <c r="L30" t="n">
-        <v>  14144000</v>
+        <v>  19926000</v>
       </c>
       <c r="M30" t="n">
-        <v>  14365000</v>
+        <v>  20424000</v>
       </c>
       <c r="N30" t="n">
-        <v>  14605000</v>
+        <v>  20934000</v>
       </c>
       <c r="O30" t="n">
-        <v>  14864000</v>
+        <v>  21458000</v>
       </c>
       <c r="P30" t="n">
-        <v>  15087000</v>
+        <v>  21994000</v>
       </c>
       <c r="Q30" t="n">
-        <v>  15313000</v>
+        <v>  22544000</v>
       </c>
       <c r="R30" t="n">
-        <v>  15543000</v>
+        <v>  23108000</v>
       </c>
       <c r="S30" t="n">
-        <v>  15776000</v>
+        <v>  23685000</v>
       </c>
       <c r="T30" t="n">
-        <v>  16013000</v>
+        <v>  24277000</v>
       </c>
       <c r="U30" t="n">
-        <v>  16253000</v>
+        <v>  24884000</v>
       </c>
       <c r="V30" t="n">
-        <v>  16497000</v>
+        <v>  25506000</v>
       </c>
       <c r="W30" t="n">
-        <v>  16744000</v>
+        <v>  26144000</v>
       </c>
     </row>
     <row r="31">
@@ -59328,67 +59341,67 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>  15541000</v>
+        <v>  30647000</v>
       </c>
       <c r="D31" t="n">
-        <v>  15976000</v>
+        <v>  30972000</v>
       </c>
       <c r="E31" t="n">
-        <v>  16423000</v>
+        <v>  31309000</v>
       </c>
       <c r="F31" t="n">
-        <v>  16883000</v>
+        <v>  31602000</v>
       </c>
       <c r="G31" t="n">
-        <v>  17356000</v>
+        <v>  31899000</v>
       </c>
       <c r="H31" t="n">
-        <v>  17842000</v>
+        <v>  32203000</v>
       </c>
       <c r="I31" t="n">
-        <v>  18341000</v>
+        <v>  32529000</v>
       </c>
       <c r="J31" t="n">
-        <v>  18855000</v>
+        <v>  32848000</v>
       </c>
       <c r="K31" t="n">
-        <v>  19383000</v>
+        <v>  33199000</v>
       </c>
       <c r="L31" t="n">
-        <v>  19926000</v>
+        <v>  33581000</v>
       </c>
       <c r="M31" t="n">
-        <v>  20424000</v>
+        <v>  33959000</v>
       </c>
       <c r="N31" t="n">
-        <v>  20934000</v>
+        <v>  34303000</v>
       </c>
       <c r="O31" t="n">
-        <v>  21458000</v>
+        <v>  34699000</v>
       </c>
       <c r="P31" t="n">
-        <v>  21994000</v>
+        <v>  35100000</v>
       </c>
       <c r="Q31" t="n">
-        <v>  22544000</v>
+        <v>  35492000</v>
       </c>
       <c r="R31" t="n">
-        <v>  23108000</v>
+        <v>  35876000</v>
       </c>
       <c r="S31" t="n">
-        <v>  23685000</v>
+        <v>  36199000</v>
       </c>
       <c r="T31" t="n">
-        <v>  24277000</v>
+        <v>  36525000</v>
       </c>
       <c r="U31" t="n">
-        <v>  24884000</v>
+        <v>  36854000</v>
       </c>
       <c r="V31" t="n">
-        <v>  25506000</v>
+        <v>  37185000</v>
       </c>
       <c r="W31" t="n">
-        <v>  26144000</v>
+        <v>  37520000</v>
       </c>
     </row>
     <row r="32">
@@ -59399,67 +59412,67 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>  30647000</v>
+        <v>    442000</v>
       </c>
       <c r="D32" t="n">
-        <v>  30972000</v>
+        <v>    451000</v>
       </c>
       <c r="E32" t="n">
-        <v>  31309000</v>
+        <v>    459000</v>
       </c>
       <c r="F32" t="n">
-        <v>  31602000</v>
+        <v>    467000</v>
       </c>
       <c r="G32" t="n">
-        <v>  31899000</v>
+        <v>    474000</v>
       </c>
       <c r="H32" t="n">
-        <v>  32203000</v>
+        <v>    479000</v>
       </c>
       <c r="I32" t="n">
-        <v>  32529000</v>
+        <v>    482000</v>
       </c>
       <c r="J32" t="n">
-        <v>  32848000</v>
+        <v>    484000</v>
       </c>
       <c r="K32" t="n">
-        <v>  33199000</v>
+        <v>    485000</v>
       </c>
       <c r="L32" t="n">
-        <v>  33581000</v>
+        <v>    486000</v>
       </c>
       <c r="M32" t="n">
-        <v>  33959000</v>
+        <v>    488000</v>
       </c>
       <c r="N32" t="n">
-        <v>  34303000</v>
+        <v>    491000</v>
       </c>
       <c r="O32" t="n">
-        <v>  34699000</v>
+        <v>    506000</v>
       </c>
       <c r="P32" t="n">
-        <v>  35100000</v>
+        <v>    512000</v>
       </c>
       <c r="Q32" t="n">
-        <v>  35492000</v>
+        <v>    518000</v>
       </c>
       <c r="R32" t="n">
-        <v>  35876000</v>
+        <v>    525000</v>
       </c>
       <c r="S32" t="n">
-        <v>  36199000</v>
+        <v>    531000</v>
       </c>
       <c r="T32" t="n">
-        <v>  36525000</v>
+        <v>    538000</v>
       </c>
       <c r="U32" t="n">
-        <v>  36854000</v>
+        <v>    545000</v>
       </c>
       <c r="V32" t="n">
-        <v>  37185000</v>
+        <v>    551000</v>
       </c>
       <c r="W32" t="n">
-        <v>  37520000</v>
+        <v>    558000</v>
       </c>
     </row>
     <row r="33">
@@ -59470,67 +59483,67 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>    442000</v>
+        <v>   3638000</v>
       </c>
       <c r="D33" t="n">
-        <v>    451000</v>
+        <v>   3704000</v>
       </c>
       <c r="E33" t="n">
-        <v>    459000</v>
+        <v>   3767000</v>
       </c>
       <c r="F33" t="n">
-        <v>    467000</v>
+        <v>   3830000</v>
       </c>
       <c r="G33" t="n">
-        <v>    474000</v>
+        <v>   3894000</v>
       </c>
       <c r="H33" t="n">
-        <v>    479000</v>
+        <v>   3961000</v>
       </c>
       <c r="I33" t="n">
-        <v>    482000</v>
+        <v>   4032000</v>
       </c>
       <c r="J33" t="n">
-        <v>    484000</v>
+        <v>   4107000</v>
       </c>
       <c r="K33" t="n">
-        <v>    485000</v>
+        <v>   4185000</v>
       </c>
       <c r="L33" t="n">
-        <v>    486000</v>
+        <v>   4266000</v>
       </c>
       <c r="M33" t="n">
-        <v>    488000</v>
+        <v>   4350000</v>
       </c>
       <c r="N33" t="n">
-        <v>    491000</v>
+        <v>   4435000</v>
       </c>
       <c r="O33" t="n">
-        <v>    506000</v>
+        <v>   4522000</v>
       </c>
       <c r="P33" t="n">
-        <v>    512000</v>
+        <v>   4611000</v>
       </c>
       <c r="Q33" t="n">
-        <v>    518000</v>
+        <v>   4701000</v>
       </c>
       <c r="R33" t="n">
-        <v>    525000</v>
+        <v>   4794000</v>
       </c>
       <c r="S33" t="n">
-        <v>    531000</v>
+        <v>   4888000</v>
       </c>
       <c r="T33" t="n">
-        <v>    538000</v>
+        <v>   4983000</v>
       </c>
       <c r="U33" t="n">
-        <v>    545000</v>
+        <v>   5081000</v>
       </c>
       <c r="V33" t="n">
-        <v>    551000</v>
+        <v>   5181000</v>
       </c>
       <c r="W33" t="n">
-        <v>    558000</v>
+        <v>   5282000</v>
       </c>
     </row>
     <row r="34">
@@ -59541,67 +59554,67 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>   3638000</v>
+        <v>   7478000</v>
       </c>
       <c r="D34" t="n">
-        <v>   3704000</v>
+        <v>   7665000</v>
       </c>
       <c r="E34" t="n">
-        <v>   3767000</v>
+        <v>   7857000</v>
       </c>
       <c r="F34" t="n">
-        <v>   3830000</v>
+        <v>   8600000</v>
       </c>
       <c r="G34" t="n">
-        <v>   3894000</v>
+        <v>   8815000</v>
       </c>
       <c r="H34" t="n">
-        <v>   3961000</v>
+        <v>   9035000</v>
       </c>
       <c r="I34" t="n">
-        <v>   4032000</v>
+        <v>   9261000</v>
       </c>
       <c r="J34" t="n">
-        <v>   4107000</v>
+        <v>   9493000</v>
       </c>
       <c r="K34" t="n">
-        <v>   4185000</v>
+        <v>   9730000</v>
       </c>
       <c r="L34" t="n">
-        <v>   4266000</v>
+        <v>   9973000</v>
       </c>
       <c r="M34" t="n">
-        <v>   4350000</v>
+        <v>  10223000</v>
       </c>
       <c r="N34" t="n">
-        <v>   4435000</v>
+        <v>  10478000</v>
       </c>
       <c r="O34" t="n">
-        <v>   4522000</v>
+        <v>  10740000</v>
       </c>
       <c r="P34" t="n">
-        <v>   4611000</v>
+        <v>  11009000</v>
       </c>
       <c r="Q34" t="n">
-        <v>   4701000</v>
+        <v>  11284000</v>
       </c>
       <c r="R34" t="n">
-        <v>   4794000</v>
+        <v>  11566000</v>
       </c>
       <c r="S34" t="n">
-        <v>   4888000</v>
+        <v>  11855000</v>
       </c>
       <c r="T34" t="n">
-        <v>   4983000</v>
+        <v>  12185000</v>
       </c>
       <c r="U34" t="n">
-        <v>   5081000</v>
+        <v>  12490000</v>
       </c>
       <c r="V34" t="n">
-        <v>   5181000</v>
+        <v>  12802000</v>
       </c>
       <c r="W34" t="n">
-        <v>   5282000</v>
+        <v>  13122000</v>
       </c>
     </row>
     <row r="35">
@@ -59612,67 +59625,67 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>   7478000</v>
+        <v>  15398000</v>
       </c>
       <c r="D35" t="n">
-        <v>   7665000</v>
+        <v>  15572000</v>
       </c>
       <c r="E35" t="n">
-        <v>   7857000</v>
+        <v>  15668000</v>
       </c>
       <c r="F35" t="n">
-        <v>   8600000</v>
+        <v>  15838000</v>
       </c>
       <c r="G35" t="n">
-        <v>   8815000</v>
+        <v>  16002000</v>
       </c>
       <c r="H35" t="n">
-        <v>   9035000</v>
+        <v>  16165000</v>
       </c>
       <c r="I35" t="n">
-        <v>   9261000</v>
+        <v>  16332000</v>
       </c>
       <c r="J35" t="n">
-        <v>   9493000</v>
+        <v>  16505000</v>
       </c>
       <c r="K35" t="n">
-        <v>   9730000</v>
+        <v>  16687000</v>
       </c>
       <c r="L35" t="n">
-        <v>   9973000</v>
+        <v>  16877000</v>
       </c>
       <c r="M35" t="n">
-        <v>  10223000</v>
+        <v>  17066000</v>
       </c>
       <c r="N35" t="n">
-        <v>  10478000</v>
+        <v>  17256000</v>
       </c>
       <c r="O35" t="n">
-        <v>  10740000</v>
+        <v>  17445000</v>
       </c>
       <c r="P35" t="n">
-        <v>  11009000</v>
+        <v>  17632000</v>
       </c>
       <c r="Q35" t="n">
-        <v>  11284000</v>
+        <v>  17819000</v>
       </c>
       <c r="R35" t="n">
-        <v>  11566000</v>
+        <v>  18006000</v>
       </c>
       <c r="S35" t="n">
-        <v>  11855000</v>
+        <v>  18196000</v>
       </c>
       <c r="T35" t="n">
-        <v>  12185000</v>
+        <v>  18387000</v>
       </c>
       <c r="U35" t="n">
-        <v>  12490000</v>
+        <v>  18580000</v>
       </c>
       <c r="V35" t="n">
-        <v>  12802000</v>
+        <v>  18776000</v>
       </c>
       <c r="W35" t="n">
-        <v>  13122000</v>
+        <v>  18973000</v>
       </c>
     </row>
     <row r="36">
@@ -59683,67 +59696,67 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>  15398000</v>
+        <v>1267430000</v>
       </c>
       <c r="D36" t="n">
-        <v>  15572000</v>
+        <v>1276270000</v>
       </c>
       <c r="E36" t="n">
-        <v>  15668000</v>
+        <v>1284530000</v>
       </c>
       <c r="F36" t="n">
-        <v>  15838000</v>
+        <v>1292270000</v>
       </c>
       <c r="G36" t="n">
-        <v>  16002000</v>
+        <v>1299880000</v>
       </c>
       <c r="H36" t="n">
-        <v>  16165000</v>
+        <v>1307560000</v>
       </c>
       <c r="I36" t="n">
-        <v>  16332000</v>
+        <v>1314480000</v>
       </c>
       <c r="J36" t="n">
-        <v>  16505000</v>
+        <v>1321290000</v>
       </c>
       <c r="K36" t="n">
-        <v>  16687000</v>
+        <v>1328020000</v>
       </c>
       <c r="L36" t="n">
-        <v>  16877000</v>
+        <v>1334500000</v>
       </c>
       <c r="M36" t="n">
-        <v>  17066000</v>
+        <v>1340910000</v>
       </c>
       <c r="N36" t="n">
-        <v>  17256000</v>
+        <v>1347350000</v>
       </c>
       <c r="O36" t="n">
-        <v>  17445000</v>
+        <v>1354040000</v>
       </c>
       <c r="P36" t="n">
-        <v>  17632000</v>
+        <v>1360720000</v>
       </c>
       <c r="Q36" t="n">
-        <v>  17819000</v>
+        <v>1367820000</v>
       </c>
       <c r="R36" t="n">
-        <v>  18006000</v>
+        <v>1374957000</v>
       </c>
       <c r="S36" t="n">
-        <v>  18196000</v>
+        <v>1382131000</v>
       </c>
       <c r="T36" t="n">
-        <v>  18387000</v>
+        <v>1389343000</v>
       </c>
       <c r="U36" t="n">
-        <v>  18580000</v>
+        <v>1396592000</v>
       </c>
       <c r="V36" t="n">
-        <v>  18776000</v>
+        <v>1403880000</v>
       </c>
       <c r="W36" t="n">
-        <v>  18973000</v>
+        <v>1411205000</v>
       </c>
     </row>
     <row r="37">
@@ -59754,67 +59767,67 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1267430000</v>
+        <v>  40296000</v>
       </c>
       <c r="D37" t="n">
-        <v>1276270000</v>
+        <v>  40814000</v>
       </c>
       <c r="E37" t="n">
-        <v>1284530000</v>
+        <v>  41329000</v>
       </c>
       <c r="F37" t="n">
-        <v>1292270000</v>
+        <v>  41849000</v>
       </c>
       <c r="G37" t="n">
-        <v>1299880000</v>
+        <v>  42368000</v>
       </c>
       <c r="H37" t="n">
-        <v>1307560000</v>
+        <v>  42889000</v>
       </c>
       <c r="I37" t="n">
-        <v>1314480000</v>
+        <v>  43406000</v>
       </c>
       <c r="J37" t="n">
-        <v>1321290000</v>
+        <v>  43927000</v>
       </c>
       <c r="K37" t="n">
-        <v>1328020000</v>
+        <v>  44451000</v>
       </c>
       <c r="L37" t="n">
-        <v>1334500000</v>
+        <v>  44979000</v>
       </c>
       <c r="M37" t="n">
-        <v>1340910000</v>
+        <v>  45510000</v>
       </c>
       <c r="N37" t="n">
-        <v>1347350000</v>
+        <v>  46045000</v>
       </c>
       <c r="O37" t="n">
-        <v>1354040000</v>
+        <v>  46582000</v>
       </c>
       <c r="P37" t="n">
-        <v>1360720000</v>
+        <v>  47121000</v>
       </c>
       <c r="Q37" t="n">
-        <v>1367820000</v>
+        <v>  47662000</v>
       </c>
       <c r="R37" t="n">
-        <v>1374957000</v>
+        <v>  48209000</v>
       </c>
       <c r="S37" t="n">
-        <v>1382131000</v>
+        <v>  48763000</v>
       </c>
       <c r="T37" t="n">
-        <v>1389343000</v>
+        <v>  49323000</v>
       </c>
       <c r="U37" t="n">
-        <v>1396592000</v>
+        <v>  49889000</v>
       </c>
       <c r="V37" t="n">
-        <v>1403880000</v>
+        <v>  50462000</v>
       </c>
       <c r="W37" t="n">
-        <v>1411205000</v>
+        <v>  51041000</v>
       </c>
     </row>
     <row r="38">
@@ -59825,67 +59838,67 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>  40296000</v>
+        <v>    540000</v>
       </c>
       <c r="D38" t="n">
-        <v>  40814000</v>
+        <v>    552000</v>
       </c>
       <c r="E38" t="n">
-        <v>  41329000</v>
+        <v>    564000</v>
       </c>
       <c r="F38" t="n">
-        <v>  41849000</v>
+        <v>    576000</v>
       </c>
       <c r="G38" t="n">
-        <v>  42368000</v>
+        <v>    593000</v>
       </c>
       <c r="H38" t="n">
-        <v>  42889000</v>
+        <v>    600000</v>
       </c>
       <c r="I38" t="n">
-        <v>  43406000</v>
+        <v>    613000</v>
       </c>
       <c r="J38" t="n">
-        <v>  43927000</v>
+        <v>    631000</v>
       </c>
       <c r="K38" t="n">
-        <v>  44451000</v>
+        <v>    650000</v>
       </c>
       <c r="L38" t="n">
-        <v>  44979000</v>
+        <v>    670000</v>
       </c>
       <c r="M38" t="n">
-        <v>  45510000</v>
+        <v>    690000</v>
       </c>
       <c r="N38" t="n">
-        <v>  46045000</v>
+        <v>    710000</v>
       </c>
       <c r="O38" t="n">
-        <v>  46582000</v>
+        <v>    732000</v>
       </c>
       <c r="P38" t="n">
-        <v>  47121000</v>
+        <v>    754000</v>
       </c>
       <c r="Q38" t="n">
-        <v>  47662000</v>
+        <v>    776000</v>
       </c>
       <c r="R38" t="n">
-        <v>  48209000</v>
+        <v>    799000</v>
       </c>
       <c r="S38" t="n">
-        <v>  48763000</v>
+        <v>    823000</v>
       </c>
       <c r="T38" t="n">
-        <v>  49323000</v>
+        <v>    848000</v>
       </c>
       <c r="U38" t="n">
-        <v>  49889000</v>
+        <v>    874000</v>
       </c>
       <c r="V38" t="n">
-        <v>  50462000</v>
+        <v>    900000</v>
       </c>
       <c r="W38" t="n">
-        <v>  51041000</v>
+        <v>    927000</v>
       </c>
     </row>
     <row r="39">
@@ -59896,67 +59909,67 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>    540000</v>
+        <v>   2904000</v>
       </c>
       <c r="D39" t="n">
-        <v>    552000</v>
+        <v>   2988000</v>
       </c>
       <c r="E39" t="n">
-        <v>    564000</v>
+        <v>   3075000</v>
       </c>
       <c r="F39" t="n">
-        <v>    576000</v>
+        <v>   3164000</v>
       </c>
       <c r="G39" t="n">
-        <v>    593000</v>
+        <v>   3256000</v>
       </c>
       <c r="H39" t="n">
-        <v>    600000</v>
+        <v>   3350000</v>
       </c>
       <c r="I39" t="n">
-        <v>    613000</v>
+        <v>   3447000</v>
       </c>
       <c r="J39" t="n">
-        <v>    631000</v>
+        <v>   3547000</v>
       </c>
       <c r="K39" t="n">
-        <v>    650000</v>
+        <v>   3650000</v>
       </c>
       <c r="L39" t="n">
-        <v>    670000</v>
+        <v>   3756000</v>
       </c>
       <c r="M39" t="n">
-        <v>    690000</v>
+        <v>   3865000</v>
       </c>
       <c r="N39" t="n">
-        <v>    710000</v>
+        <v>   3977000</v>
       </c>
       <c r="O39" t="n">
-        <v>    732000</v>
+        <v>   4092000</v>
       </c>
       <c r="P39" t="n">
-        <v>    754000</v>
+        <v>   4182000</v>
       </c>
       <c r="Q39" t="n">
-        <v>    776000</v>
+        <v>   4274000</v>
       </c>
       <c r="R39" t="n">
-        <v>    799000</v>
+        <v>   4368000</v>
       </c>
       <c r="S39" t="n">
-        <v>    823000</v>
+        <v>   4460000</v>
       </c>
       <c r="T39" t="n">
-        <v>    848000</v>
+        <v>   4554000</v>
       </c>
       <c r="U39" t="n">
-        <v>    874000</v>
+        <v>   4650000</v>
       </c>
       <c r="V39" t="n">
-        <v>    900000</v>
+        <v>   4748000</v>
       </c>
       <c r="W39" t="n">
-        <v>    927000</v>
+        <v>   4848000</v>
       </c>
     </row>
     <row r="40">
@@ -59967,67 +59980,67 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>   2904000</v>
+        <v>   3810000</v>
       </c>
       <c r="D40" t="n">
-        <v>   2988000</v>
+        <v>   3953000</v>
       </c>
       <c r="E40" t="n">
-        <v>   3075000</v>
+        <v>   4022000</v>
       </c>
       <c r="F40" t="n">
-        <v>   3164000</v>
+        <v>   4086000</v>
       </c>
       <c r="G40" t="n">
-        <v>   3256000</v>
+        <v>   4152000</v>
       </c>
       <c r="H40" t="n">
-        <v>   3350000</v>
+        <v>   4215000</v>
       </c>
       <c r="I40" t="n">
-        <v>   3447000</v>
+        <v>   4279000</v>
       </c>
       <c r="J40" t="n">
-        <v>   3547000</v>
+        <v>   4340000</v>
       </c>
       <c r="K40" t="n">
-        <v>   3650000</v>
+        <v>   4404000</v>
       </c>
       <c r="L40" t="n">
-        <v>   3756000</v>
+        <v>   4469000</v>
       </c>
       <c r="M40" t="n">
-        <v>   3865000</v>
+        <v>   4534000</v>
       </c>
       <c r="N40" t="n">
-        <v>   3977000</v>
+        <v>   4592000</v>
       </c>
       <c r="O40" t="n">
-        <v>   4092000</v>
+        <v>   4652000</v>
       </c>
       <c r="P40" t="n">
-        <v>   4182000</v>
+        <v>   4713000</v>
       </c>
       <c r="Q40" t="n">
-        <v>   4274000</v>
+        <v>   4775000</v>
       </c>
       <c r="R40" t="n">
-        <v>   4368000</v>
+        <v>   4837000</v>
       </c>
       <c r="S40" t="n">
-        <v>   4460000</v>
+        <v>   4900000</v>
       </c>
       <c r="T40" t="n">
-        <v>   4554000</v>
+        <v>   4964000</v>
       </c>
       <c r="U40" t="n">
-        <v>   4650000</v>
+        <v>   5029000</v>
       </c>
       <c r="V40" t="n">
-        <v>   4748000</v>
+        <v>   5094000</v>
       </c>
       <c r="W40" t="n">
-        <v>   4848000</v>
+        <v>   5161000</v>
       </c>
     </row>
     <row r="41">
@@ -60038,67 +60051,67 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>   3810000</v>
+        <v>  15554000</v>
       </c>
       <c r="D41" t="n">
-        <v>   3953000</v>
+        <v>  16020000</v>
       </c>
       <c r="E41" t="n">
-        <v>   4022000</v>
+        <v>  16501000</v>
       </c>
       <c r="F41" t="n">
-        <v>   4086000</v>
+        <v>  16996000</v>
       </c>
       <c r="G41" t="n">
-        <v>   4152000</v>
+        <v>  17506000</v>
       </c>
       <c r="H41" t="n">
-        <v>   4215000</v>
+        <v>  18031000</v>
       </c>
       <c r="I41" t="n">
-        <v>   4279000</v>
+        <v>  18500000</v>
       </c>
       <c r="J41" t="n">
-        <v>   4340000</v>
+        <v>  18981000</v>
       </c>
       <c r="K41" t="n">
-        <v>   4404000</v>
+        <v>  19475000</v>
       </c>
       <c r="L41" t="n">
-        <v>   4469000</v>
+        <v>  19981000</v>
       </c>
       <c r="M41" t="n">
-        <v>   4534000</v>
+        <v>  20500000</v>
       </c>
       <c r="N41" t="n">
-        <v>   4592000</v>
+        <v>  21033000</v>
       </c>
       <c r="O41" t="n">
-        <v>   4652000</v>
+        <v>  21580000</v>
       </c>
       <c r="P41" t="n">
-        <v>   4713000</v>
+        <v>  22141000</v>
       </c>
       <c r="Q41" t="n">
-        <v>   4775000</v>
+        <v>  22717000</v>
       </c>
       <c r="R41" t="n">
-        <v>   4837000</v>
+        <v>  23308000</v>
       </c>
       <c r="S41" t="n">
-        <v>   4900000</v>
+        <v>  23914000</v>
       </c>
       <c r="T41" t="n">
-        <v>   4964000</v>
+        <v>  24535000</v>
       </c>
       <c r="U41" t="n">
-        <v>   5029000</v>
+        <v>  25173000</v>
       </c>
       <c r="V41" t="n">
-        <v>   5094000</v>
+        <v>  25828000</v>
       </c>
       <c r="W41" t="n">
-        <v>   5161000</v>
+        <v>  26499000</v>
       </c>
     </row>
     <row r="42">
@@ -69831,67 +69844,67 @@
         <v>361</v>
       </c>
       <c r="C180" t="n">
-        <v>  49115000</v>
+        <v>  58886000</v>
       </c>
       <c r="D180" t="n">
-        <v>  48241000</v>
+        <v>  59113000</v>
       </c>
       <c r="E180" t="n">
-        <v>  47823000</v>
+        <v>  59319000</v>
       </c>
       <c r="F180" t="n">
-        <v>  47442000</v>
+        <v>  59552000</v>
       </c>
       <c r="G180" t="n">
-        <v>  47101000</v>
+        <v>  59842000</v>
       </c>
       <c r="H180" t="n">
-        <v>  46749000</v>
+        <v>  60235000</v>
       </c>
       <c r="I180" t="n">
-        <v>  46466000</v>
+        <v>  60584000</v>
       </c>
       <c r="J180" t="n">
-        <v>  46192000</v>
+        <v>  60986000</v>
       </c>
       <c r="K180" t="n">
-        <v>  45963000</v>
+        <v>  61398000</v>
       </c>
       <c r="L180" t="n">
-        <v>  45783000</v>
+        <v>  61792000</v>
       </c>
       <c r="M180" t="n">
-        <v>  45598000</v>
+        <v>  62262000</v>
       </c>
       <c r="N180" t="n">
-        <v>  45453000</v>
+        <v>  63285000</v>
       </c>
       <c r="O180" t="n">
-        <v>  45373000</v>
+        <v>  63705000</v>
       </c>
       <c r="P180" t="n">
-        <v>  42904000</v>
+        <v>  64087000</v>
       </c>
       <c r="Q180" t="n">
-        <v>  42775000</v>
+        <v>  64511000</v>
       </c>
       <c r="R180" t="n">
-        <v>  42685000</v>
+        <v>  64938000</v>
       </c>
       <c r="S180" t="n">
-        <v>  42595000</v>
+        <v>  65386000</v>
       </c>
       <c r="T180" t="n">
-        <v>  42506000</v>
+        <v>  65825000</v>
       </c>
       <c r="U180" t="n">
-        <v>  42417000</v>
+        <v>  66266000</v>
       </c>
       <c r="V180" t="n">
-        <v>  42328000</v>
+        <v>  66697000</v>
       </c>
       <c r="W180" t="n">
-        <v>  42239000</v>
+        <v>  67126000</v>
       </c>
     </row>
     <row r="181">
@@ -69902,67 +69915,67 @@
         <v>363</v>
       </c>
       <c r="C181" t="n">
-        <v>  58886000</v>
+        <v>  49115000</v>
       </c>
       <c r="D181" t="n">
-        <v>  59113000</v>
+        <v>  48241000</v>
       </c>
       <c r="E181" t="n">
-        <v>  59319000</v>
+        <v>  47823000</v>
       </c>
       <c r="F181" t="n">
-        <v>  59552000</v>
+        <v>  47442000</v>
       </c>
       <c r="G181" t="n">
-        <v>  59842000</v>
+        <v>  47101000</v>
       </c>
       <c r="H181" t="n">
-        <v>  60235000</v>
+        <v>  46749000</v>
       </c>
       <c r="I181" t="n">
-        <v>  60584000</v>
+        <v>  46466000</v>
       </c>
       <c r="J181" t="n">
-        <v>  60986000</v>
+        <v>  46192000</v>
       </c>
       <c r="K181" t="n">
-        <v>  61398000</v>
+        <v>  45963000</v>
       </c>
       <c r="L181" t="n">
-        <v>  61792000</v>
+        <v>  45783000</v>
       </c>
       <c r="M181" t="n">
-        <v>  62262000</v>
+        <v>  45598000</v>
       </c>
       <c r="N181" t="n">
-        <v>  63285000</v>
+        <v>  45453000</v>
       </c>
       <c r="O181" t="n">
-        <v>  63705000</v>
+        <v>  45373000</v>
       </c>
       <c r="P181" t="n">
-        <v>  64087000</v>
+        <v>  42904000</v>
       </c>
       <c r="Q181" t="n">
-        <v>  64511000</v>
+        <v>  42775000</v>
       </c>
       <c r="R181" t="n">
-        <v>  64938000</v>
+        <v>  42685000</v>
       </c>
       <c r="S181" t="n">
-        <v>  65386000</v>
+        <v>  42595000</v>
       </c>
       <c r="T181" t="n">
-        <v>  65825000</v>
+        <v>  42506000</v>
       </c>
       <c r="U181" t="n">
-        <v>  66266000</v>
+        <v>  42417000</v>
       </c>
       <c r="V181" t="n">
-        <v>  66697000</v>
+        <v>  42328000</v>
       </c>
       <c r="W181" t="n">
-        <v>  67126000</v>
+        <v>  42239000</v>
       </c>
     </row>
     <row r="182">
